--- a/Team-66-MS1-P1-A.xlsx
+++ b/Team-66-MS1-P1-A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daniel\GUC\Sem 6\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC924115-A82F-4D90-A18E-FF34522CA604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B43A1E3-4BE1-4FD7-A018-9145867F4F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="105">
-  <si>
-    <t>Team Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -179,9 +176,6 @@
     <t xml:space="preserve"> can finish my 3 month of internship</t>
   </si>
   <si>
-    <t xml:space="preserve">Access Student Data </t>
-  </si>
-  <si>
     <t>I can group students according to major</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
     <t>students choose a timing for an interview</t>
   </si>
   <si>
-    <t>Still needs updating</t>
-  </si>
-  <si>
     <t>Choose a timing for the interview</t>
   </si>
   <si>
@@ -339,6 +330,132 @@
   </si>
   <si>
     <t>youssef.tawadros@student.guc.edu.eg</t>
+  </si>
+  <si>
+    <t>Team 66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access &amp; view Student Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">upload company certificates </t>
+  </si>
+  <si>
+    <t>the company could be check that they are certified company</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>save student profiles</t>
+  </si>
+  <si>
+    <t>they could contact them for future internships</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>bookmark internships and companies</t>
+  </si>
+  <si>
+    <t>they could return to them in a sutuible timing</t>
+  </si>
+  <si>
+    <t>receive notification when bookmarked companies upload future internships</t>
+  </si>
+  <si>
+    <t>I am upto date</t>
+  </si>
+  <si>
+    <t>update &amp; edit internship listings</t>
+  </si>
+  <si>
+    <t>the could edit available positions</t>
+  </si>
+  <si>
+    <t>I apply the most suitable internship for me</t>
+  </si>
+  <si>
+    <t>keywords as location and timing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> be able to search for listings using filters</t>
+  </si>
+  <si>
+    <t>be able to search through the listings</t>
+  </si>
+  <si>
+    <t>it is easier to navigate through listings</t>
+  </si>
+  <si>
+    <t>add keywords for internships</t>
+  </si>
+  <si>
+    <t>It would be easier to serach for</t>
+  </si>
+  <si>
+    <t>have an email inbox</t>
+  </si>
+  <si>
+    <t>I could receive company mails and interview timings</t>
+  </si>
+  <si>
+    <t>check that all profiles are encrypted</t>
+  </si>
+  <si>
+    <t>no data breaches could occur increasing the securty of the app</t>
+  </si>
+  <si>
+    <t>create, organize and moniter closed chats between students and company</t>
+  </si>
+  <si>
+    <t>I could connect both entities together and ensure a well communication</t>
+  </si>
+  <si>
+    <t>link my linkdin and github profiles</t>
+  </si>
+  <si>
+    <t>I have w full preview of my work and previous internships</t>
+  </si>
+  <si>
+    <t>7,10</t>
+  </si>
+  <si>
+    <t>Send Notifications and alerts to student about bookmarked company listing</t>
+  </si>
+  <si>
+    <t>students are updated regularly</t>
+  </si>
+  <si>
+    <t>view emails sent by SCAD office and company</t>
+  </si>
+  <si>
+    <t>check on intership progress and news</t>
+  </si>
+  <si>
+    <t>be able to send, delete and favourite emails received</t>
+  </si>
+  <si>
+    <t>I can have a neat inbox and monitor emails easily</t>
+  </si>
+  <si>
+    <t>monitor students progress in their internship</t>
+  </si>
+  <si>
+    <t>upload students progress continously</t>
+  </si>
+  <si>
+    <t>the SCAD office be able to monitor progress</t>
+  </si>
+  <si>
+    <t>To ensure the onternship is progressing normally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be able to view students evaluation reports from the SCAD office </t>
+  </si>
+  <si>
+    <t>to ensure safe and succesful work environoment</t>
   </si>
 </sst>
 </file>
@@ -558,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,20 +686,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -629,6 +732,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -853,7 +976,7 @@
   <dimension ref="A1:D997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -863,62 +986,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="D7" s="3">
         <v>23</v>
@@ -926,13 +1049,13 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="3">
         <v>23</v>
@@ -940,13 +1063,13 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>25</v>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="3">
         <v>23</v>
@@ -954,13 +1077,13 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="3">
         <v>26</v>
@@ -968,13 +1091,13 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="D11" s="3">
         <v>12</v>
@@ -1989,871 +2112,1030 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="20"/>
-    <col min="2" max="2" width="31" style="20" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" style="24" customWidth="1"/>
-    <col min="5" max="6" width="35.5546875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="54.88671875" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="12.5546875" style="20"/>
+    <col min="1" max="1" width="12.5546875" style="14"/>
+    <col min="2" max="2" width="31" style="14" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="18" customWidth="1"/>
+    <col min="5" max="6" width="35.5546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="54.88671875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="12.5546875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18">
-        <v>2</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>39</v>
+      <c r="A5" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="10">
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="28">
+        <v>5</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="10">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="12">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="10">
+        <v>10</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="5">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10">
+        <v>12</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="12">
+        <v>13</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="5">
+        <v>13</v>
+      </c>
+      <c r="C16" s="28">
+        <v>14</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="11">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10">
+        <v>15</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="5">
+        <v>15</v>
+      </c>
+      <c r="C18" s="12">
+        <v>16</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="11">
+        <v>16</v>
+      </c>
+      <c r="C19" s="10">
+        <v>17</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="5">
+        <v>17</v>
+      </c>
+      <c r="C20" s="12">
+        <v>18</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="11">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10">
+        <v>19</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="5">
+        <v>19</v>
+      </c>
+      <c r="C22" s="12">
+        <v>20</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11">
+        <v>20</v>
+      </c>
+      <c r="C23" s="10">
+        <v>21</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="5">
+        <v>21</v>
+      </c>
+      <c r="C24" s="12">
+        <v>22</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11">
+        <v>22</v>
+      </c>
+      <c r="C25" s="28">
+        <v>23</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="5">
+        <v>23</v>
+      </c>
+      <c r="C26" s="10">
+        <v>24</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12">
+        <v>25</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="10">
+        <v>26</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12">
+        <v>27</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="10">
+        <v>28</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11">
+        <v>28</v>
+      </c>
+      <c r="C31" s="12">
+        <v>29</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="5">
+        <v>29</v>
+      </c>
+      <c r="C32" s="10">
+        <v>30</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12">
+        <v>31</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="28">
+        <v>32</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10">
+        <v>33</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="10">
+        <v>34</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12">
         <v>35</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="D39" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="10">
         <v>36</v>
       </c>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="D40" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11">
+        <v>36</v>
+      </c>
+      <c r="C41" s="12">
+        <v>37</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="10">
+        <v>38</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="43" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12">
         <v>39</v>
       </c>
-      <c r="B6" s="17">
-        <v>2</v>
-      </c>
-      <c r="C6" s="18">
-        <v>4</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="16">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="D43" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="5">
+        <v>39</v>
+      </c>
+      <c r="C44" s="10">
+        <v>40</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12">
+        <v>41</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="10">
+        <v>42</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E46" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="10">
+        <v>43</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12">
+        <v>44</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="10">
         <v>45</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="16">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18">
-        <v>7</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="D49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="15"/>
+    </row>
+    <row r="50" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12">
+        <v>46</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11">
         <v>42</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="C51" s="12">
+        <v>47</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51" s="17"/>
+    </row>
+    <row r="52" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11">
+        <v>48</v>
+      </c>
+      <c r="C52" s="12">
+        <v>49</v>
+      </c>
+      <c r="D52" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="5">
-        <v>7</v>
-      </c>
-      <c r="C10" s="16">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="E52" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="17"/>
+    </row>
+    <row r="53" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12">
         <v>48</v>
       </c>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="17">
-        <v>8</v>
-      </c>
-      <c r="C11" s="18">
-        <v>9</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="D53" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G53" s="17"/>
+    </row>
+    <row r="54" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12">
         <v>50</v>
       </c>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18">
-        <v>10</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="5">
-        <v>10</v>
-      </c>
-      <c r="C13" s="16">
-        <v>11</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="18">
-        <v>12</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="5">
-        <v>12</v>
-      </c>
-      <c r="C15" s="16">
-        <v>13</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="17">
-        <v>13</v>
-      </c>
-      <c r="C16" s="18">
-        <v>14</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="5">
-        <v>14</v>
-      </c>
-      <c r="C17" s="16">
-        <v>15</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="17">
-        <v>15</v>
-      </c>
-      <c r="C18" s="18">
-        <v>16</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="5">
-        <v>16</v>
-      </c>
-      <c r="C19" s="16">
-        <v>17</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="17">
-        <v>17</v>
-      </c>
-      <c r="C20" s="18">
-        <v>18</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="5">
-        <v>18</v>
-      </c>
-      <c r="C21" s="16">
-        <v>19</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17">
-        <v>19</v>
-      </c>
-      <c r="C22" s="18">
-        <v>20</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="23"/>
-    </row>
-    <row r="23" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="5">
-        <v>20</v>
-      </c>
-      <c r="C23" s="16">
-        <v>21</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17">
-        <v>21</v>
-      </c>
-      <c r="C24" s="18">
-        <v>22</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="5">
-        <v>22</v>
-      </c>
-      <c r="C25" s="16">
-        <v>23</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18">
-        <v>24</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="16">
-        <v>25</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18">
-        <v>26</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="16">
-        <v>27</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="21"/>
-    </row>
-    <row r="30" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17">
-        <v>27</v>
-      </c>
-      <c r="C30" s="18">
-        <v>28</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="5">
-        <v>28</v>
-      </c>
-      <c r="C31" s="16">
-        <v>29</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18">
-        <v>30</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="16">
-        <v>31</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18">
-        <v>32</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="23"/>
-    </row>
-    <row r="39" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="23"/>
-    </row>
-    <row r="41" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="21"/>
-    </row>
-    <row r="42" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="23"/>
-    </row>
-    <row r="43" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="21"/>
-    </row>
-    <row r="44" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="23"/>
-    </row>
-    <row r="45" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="21"/>
-    </row>
-    <row r="46" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="23"/>
-    </row>
-    <row r="47" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="21"/>
-    </row>
-    <row r="48" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="23"/>
-    </row>
-    <row r="49" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="19"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="19"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="19"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="19"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="19"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="19"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="D54" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="19"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="19"/>
+      <c r="C56" s="13"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -2861,7 +3143,7 @@
     <row r="57" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="19"/>
+      <c r="C57" s="13"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -2869,7 +3151,7 @@
     <row r="58" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="19"/>
+      <c r="C58" s="13"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -2877,7 +3159,7 @@
     <row r="59" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="19"/>
+      <c r="C59" s="13"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -2885,7 +3167,7 @@
     <row r="60" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="19"/>
+      <c r="C60" s="13"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -2893,7 +3175,7 @@
     <row r="61" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="19"/>
+      <c r="C61" s="13"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -2901,7 +3183,7 @@
     <row r="62" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="19"/>
+      <c r="C62" s="13"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -2909,7 +3191,7 @@
     <row r="63" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="19"/>
+      <c r="C63" s="13"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -2917,7 +3199,7 @@
     <row r="64" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="19"/>
+      <c r="C64" s="13"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -2925,7 +3207,7 @@
     <row r="65" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="19"/>
+      <c r="C65" s="13"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -2933,7 +3215,7 @@
     <row r="66" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="19"/>
+      <c r="C66" s="13"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -2941,7 +3223,7 @@
     <row r="67" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="19"/>
+      <c r="C67" s="13"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -2949,7 +3231,7 @@
     <row r="68" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="19"/>
+      <c r="C68" s="13"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -2957,7 +3239,7 @@
     <row r="69" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="19"/>
+      <c r="C69" s="13"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -2965,7 +3247,7 @@
     <row r="70" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="19"/>
+      <c r="C70" s="13"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -2973,7 +3255,7 @@
     <row r="71" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="19"/>
+      <c r="C71" s="13"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -2981,7 +3263,7 @@
     <row r="72" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="19"/>
+      <c r="C72" s="13"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -2989,7 +3271,7 @@
     <row r="73" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="19"/>
+      <c r="C73" s="13"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -2997,7 +3279,7 @@
     <row r="74" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="19"/>
+      <c r="C74" s="13"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -3005,7 +3287,7 @@
     <row r="75" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="19"/>
+      <c r="C75" s="13"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -3013,7 +3295,7 @@
     <row r="76" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="19"/>
+      <c r="C76" s="13"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -3021,7 +3303,7 @@
     <row r="77" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="19"/>
+      <c r="C77" s="13"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -3029,7 +3311,7 @@
     <row r="78" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="19"/>
+      <c r="C78" s="13"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -3037,7 +3319,7 @@
     <row r="79" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="19"/>
+      <c r="C79" s="13"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -3045,7 +3327,7 @@
     <row r="80" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="19"/>
+      <c r="C80" s="13"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -3053,7 +3335,7 @@
     <row r="81" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="19"/>
+      <c r="C81" s="13"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -3061,7 +3343,7 @@
     <row r="82" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="19"/>
+      <c r="C82" s="13"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -3069,7 +3351,7 @@
     <row r="83" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="19"/>
+      <c r="C83" s="13"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -3077,7 +3359,7 @@
     <row r="84" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="19"/>
+      <c r="C84" s="13"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -3085,7 +3367,7 @@
     <row r="85" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="19"/>
+      <c r="C85" s="13"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -3093,7 +3375,7 @@
     <row r="86" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="19"/>
+      <c r="C86" s="13"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -3101,7 +3383,7 @@
     <row r="87" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="19"/>
+      <c r="C87" s="13"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -3109,7 +3391,7 @@
     <row r="88" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="19"/>
+      <c r="C88" s="13"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -3117,7 +3399,7 @@
     <row r="89" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="19"/>
+      <c r="C89" s="13"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -3125,7 +3407,7 @@
     <row r="90" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="19"/>
+      <c r="C90" s="13"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -3133,7 +3415,7 @@
     <row r="91" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="19"/>
+      <c r="C91" s="13"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -3141,7 +3423,7 @@
     <row r="92" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="19"/>
+      <c r="C92" s="13"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -3149,7 +3431,7 @@
     <row r="93" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="19"/>
+      <c r="C93" s="13"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -3157,7 +3439,7 @@
     <row r="94" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="19"/>
+      <c r="C94" s="13"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -3165,7 +3447,7 @@
     <row r="95" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="19"/>
+      <c r="C95" s="13"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -3173,7 +3455,7 @@
     <row r="96" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="19"/>
+      <c r="C96" s="13"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -3181,7 +3463,7 @@
     <row r="97" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="19"/>
+      <c r="C97" s="13"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -3189,7 +3471,7 @@
     <row r="98" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="19"/>
+      <c r="C98" s="13"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -3197,7 +3479,7 @@
     <row r="99" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="19"/>
+      <c r="C99" s="13"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -3205,7 +3487,7 @@
     <row r="100" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="19"/>
+      <c r="C100" s="13"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -3213,7 +3495,7 @@
     <row r="101" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="19"/>
+      <c r="C101" s="13"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -3221,7 +3503,7 @@
     <row r="102" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="19"/>
+      <c r="C102" s="13"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -3229,7 +3511,7 @@
     <row r="103" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="19"/>
+      <c r="C103" s="13"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -3237,7 +3519,7 @@
     <row r="104" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="19"/>
+      <c r="C104" s="13"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -3245,7 +3527,7 @@
     <row r="105" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="19"/>
+      <c r="C105" s="13"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -3253,7 +3535,7 @@
     <row r="106" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="19"/>
+      <c r="C106" s="13"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -3261,7 +3543,7 @@
     <row r="107" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="19"/>
+      <c r="C107" s="13"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -3269,7 +3551,7 @@
     <row r="108" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="19"/>
+      <c r="C108" s="13"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -3277,7 +3559,7 @@
     <row r="109" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="19"/>
+      <c r="C109" s="13"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -3285,7 +3567,7 @@
     <row r="110" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="19"/>
+      <c r="C110" s="13"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -3293,7 +3575,7 @@
     <row r="111" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="19"/>
+      <c r="C111" s="13"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -3301,7 +3583,7 @@
     <row r="112" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="19"/>
+      <c r="C112" s="13"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -3309,7 +3591,7 @@
     <row r="113" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="19"/>
+      <c r="C113" s="13"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -3317,10 +3599,26 @@
     <row r="114" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="19"/>
+      <c r="C114" s="13"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="13"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="13"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Team-66-MS1-P1-A.xlsx
+++ b/Team-66-MS1-P1-A.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeLL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F00A6FB5-DA92-481F-A329-5E2090F588FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B980FF4B-0068-44C6-BB43-545B127594C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -337,9 +337,6 @@
     <t>it is easier to navigate through listings</t>
   </si>
   <si>
-    <t>add keywords for internships</t>
-  </si>
-  <si>
     <t>have an email inbox</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>create, organize and monitor closed chats between students and company</t>
   </si>
   <si>
-    <t>bos 3ala di</t>
-  </si>
-  <si>
     <t xml:space="preserve">Design an internship report </t>
   </si>
   <si>
@@ -463,10 +457,19 @@
     <t>Faculty Academics</t>
   </si>
   <si>
-    <t>Add internship to student profile and update remainf internship time</t>
-  </si>
-  <si>
     <t>internship is finalized</t>
+  </si>
+  <si>
+    <t>confirm that company profiles are real from their certifactes</t>
+  </si>
+  <si>
+    <t>I have a correct app</t>
+  </si>
+  <si>
+    <t>add filters for internships</t>
+  </si>
+  <si>
+    <t>Add internship to student profile and update remaining internship time</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -760,6 +763,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -987,13 +993,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>86</v>
       </c>
@@ -1001,25 +1007,25 @@
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>13</v>
       </c>
@@ -1027,7 +1033,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1069,7 +1075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1083,7 +1089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1111,992 +1117,992 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
@@ -2120,24 +2126,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="14"/>
+    <col min="1" max="1" width="12.5546875" style="14"/>
     <col min="2" max="2" width="31" style="14" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="18" customWidth="1"/>
-    <col min="5" max="6" width="35.5703125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="54.85546875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="12.5703125" style="14"/>
+    <col min="3" max="3" width="18.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="18" customWidth="1"/>
+    <col min="5" max="6" width="35.5546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="54.88671875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="12.5546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -2171,7 +2177,7 @@
       </c>
       <c r="G2" s="28"/>
     </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
         <v>12</v>
@@ -2190,7 +2196,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
@@ -2202,15 +2208,17 @@
         <v>36</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>121</v>
-      </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="B5" s="11"/>
       <c r="C5" s="10">
         <v>3</v>
@@ -2219,14 +2227,14 @@
         <v>31</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
@@ -2247,7 +2255,7 @@
       </c>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
@@ -2259,15 +2267,17 @@
         <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="B8" s="5"/>
       <c r="C8" s="12">
         <v>6</v>
@@ -2283,842 +2293,876 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" s="29">
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="5"/>
+      <c r="C11" s="12">
         <v>9</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="11">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10">
+        <v>10</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="12">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="10">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C14" s="10">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="12">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="F14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="12">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11">
-        <v>36</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="F15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="11">
         <v>13</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>14</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>93</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="5">
-        <v>39</v>
-      </c>
+    <row r="17" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="10">
         <v>15</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="17" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="B18" s="11"/>
       <c r="C18" s="12">
         <v>16</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="11">
-        <v>9</v>
+      <c r="B19" s="5">
+        <v>15</v>
       </c>
       <c r="C19" s="10">
         <v>17</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12">
+      <c r="B20" s="11">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10">
         <v>18</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="5">
-        <v>11</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12">
         <v>19</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="19">
-        <v>10</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="B22" s="5">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10">
         <v>20</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="E22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="19">
+        <v>18</v>
+      </c>
       <c r="C23" s="10">
         <v>21</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>92</v>
+        <v>31</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="5">
-        <v>13</v>
-      </c>
+      <c r="B24" s="11"/>
       <c r="C24" s="12">
         <v>22</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="11">
-        <v>14</v>
+      <c r="B25" s="5">
+        <v>18</v>
       </c>
       <c r="C25" s="10">
         <v>23</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="5">
-        <v>15</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="B26" s="11">
+        <v>23</v>
+      </c>
+      <c r="C26" s="10">
         <v>24</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="5">
+        <v>24</v>
+      </c>
+      <c r="C27" s="12">
+        <v>25</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F27" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="10">
-        <v>25</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <v>26</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+    <row r="29" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="5">
+        <v>26</v>
+      </c>
       <c r="C29" s="10">
         <v>27</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="11" t="s">
+      <c r="D29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C30" s="12">
         <v>28</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="5"/>
+    <row r="31" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11">
+        <v>26</v>
+      </c>
       <c r="C31" s="10">
         <v>29</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="10">
+        <v>30</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="11">
-        <v>15</v>
-      </c>
-      <c r="C32" s="12">
-        <v>30</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="5">
-        <v>17</v>
-      </c>
-      <c r="C33" s="10">
+      <c r="B33" s="11">
+        <v>25</v>
+      </c>
+      <c r="C33" s="12">
         <v>31</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="11">
-        <v>18</v>
-      </c>
-      <c r="C34" s="12">
+      <c r="B34" s="5">
+        <v>31</v>
+      </c>
+      <c r="C34" s="10">
         <v>32</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="5">
-        <v>19</v>
+      <c r="B35" s="11">
+        <v>32</v>
       </c>
       <c r="C35" s="10">
         <v>33</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11">
-        <v>20</v>
+      <c r="E35" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="5">
+        <v>33</v>
       </c>
       <c r="C36" s="12">
         <v>34</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="5">
-        <v>21</v>
+      <c r="E36" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11">
+        <v>34</v>
       </c>
       <c r="C37" s="10">
         <v>35</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="5">
+        <v>35</v>
+      </c>
+      <c r="C38" s="10">
+        <v>36</v>
+      </c>
+      <c r="D38" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E38" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F38" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11">
-        <v>22</v>
-      </c>
-      <c r="C38" s="12">
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11">
         <v>36</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="C39" s="12">
+        <v>37</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E39" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F39" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="5">
-        <v>23</v>
-      </c>
-      <c r="C39" s="10">
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="5">
         <v>37</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="C40" s="10">
+        <v>38</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E40" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F40" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G40" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12">
-        <v>38</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C41" s="10">
         <v>39</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>112</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
+      <c r="B42" s="11">
+        <v>39</v>
+      </c>
       <c r="C42" s="12">
         <v>40</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>72</v>
+        <v>31</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="5"/>
+    <row r="43" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="10">
         <v>41</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="10">
+        <v>42</v>
+      </c>
+      <c r="D44" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E44" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F44" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12">
-        <v>42</v>
-      </c>
-      <c r="D44" s="16" t="s">
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12">
+        <v>43</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E45" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F45" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="10">
-        <v>43</v>
-      </c>
-      <c r="D45" s="20" t="s">
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="10">
+        <v>44</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="G45" s="15"/>
-    </row>
-    <row r="46" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11">
-        <v>28</v>
-      </c>
-      <c r="C46" s="12">
+      <c r="E46" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11">
         <v>44</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="5">
-        <v>29</v>
       </c>
       <c r="C47" s="10">
         <v>45</v>
       </c>
-      <c r="D47" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>78</v>
+      <c r="D47" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G47" s="15"/>
-    </row>
-    <row r="48" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="5">
+        <v>44</v>
+      </c>
       <c r="C48" s="12">
         <v>46</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="10">
         <v>47</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="10">
+        <v>48</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F50" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="G49" s="17"/>
-    </row>
-    <row r="50" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="12">
-        <v>48</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F50" s="20" t="s">
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="12">
+        <v>49</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G50" s="15"/>
-    </row>
-    <row r="51" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="10">
+      <c r="G51" s="15"/>
+    </row>
+    <row r="52" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11">
         <v>49</v>
       </c>
-      <c r="D51" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E51" s="19" t="s">
+      <c r="C52" s="10">
+        <v>50</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G51" s="17"/>
-    </row>
-    <row r="52" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="15"/>
-    </row>
-    <row r="53" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="17"/>
-    </row>
-    <row r="54" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" s="17"/>
+    </row>
+    <row r="53" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="15"/>
+    </row>
+    <row r="54" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
@@ -3127,15 +3171,16 @@
       <c r="F54" s="11"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="13"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="17"/>
+    </row>
+    <row r="56" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="13"/>
@@ -3143,7 +3188,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="13"/>
@@ -3151,7 +3196,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="13"/>
@@ -3159,7 +3204,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="13"/>
@@ -3167,7 +3212,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="13"/>
@@ -3175,7 +3220,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="13"/>
@@ -3183,7 +3228,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="13"/>
@@ -3191,7 +3236,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="13"/>
@@ -3199,7 +3244,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="13"/>
@@ -3207,7 +3252,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="13"/>
@@ -3215,7 +3260,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="13"/>
@@ -3223,7 +3268,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="13"/>
@@ -3231,7 +3276,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="13"/>
@@ -3239,7 +3284,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="13"/>
@@ -3247,7 +3292,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="13"/>
@@ -3255,7 +3300,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="13"/>
@@ -3263,7 +3308,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="13"/>
@@ -3271,7 +3316,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="13"/>
@@ -3279,7 +3324,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="13"/>
@@ -3287,7 +3332,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="13"/>
@@ -3295,7 +3340,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="13"/>
@@ -3303,7 +3348,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="13"/>
@@ -3311,7 +3356,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="13"/>
@@ -3319,7 +3364,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="13"/>
@@ -3327,7 +3372,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="13"/>
@@ -3335,7 +3380,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="13"/>
@@ -3343,7 +3388,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="13"/>
@@ -3351,7 +3396,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="13"/>
@@ -3359,7 +3404,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="13"/>
@@ -3367,7 +3412,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="13"/>
@@ -3375,7 +3420,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="13"/>
@@ -3383,7 +3428,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="13"/>
@@ -3391,7 +3436,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="13"/>
@@ -3399,7 +3444,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="13"/>
@@ -3407,7 +3452,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="13"/>
@@ -3415,7 +3460,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="13"/>
@@ -3423,7 +3468,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="13"/>
@@ -3431,7 +3476,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="13"/>
@@ -3439,7 +3484,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="13"/>
@@ -3447,7 +3492,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="13"/>
@@ -3455,7 +3500,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="13"/>
@@ -3463,7 +3508,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="13"/>
@@ -3471,7 +3516,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="13"/>
@@ -3479,7 +3524,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="13"/>
@@ -3487,7 +3532,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="13"/>
@@ -3495,7 +3540,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="13"/>
@@ -3503,7 +3548,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="13"/>
@@ -3511,7 +3556,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="13"/>
@@ -3519,7 +3564,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="13"/>
@@ -3527,7 +3572,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="13"/>
@@ -3535,7 +3580,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
     </row>
-    <row r="106" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="13"/>
@@ -3543,7 +3588,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="13"/>
@@ -3551,7 +3596,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="13"/>
@@ -3559,7 +3604,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
     </row>
-    <row r="109" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="13"/>
@@ -3567,7 +3612,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
     </row>
-    <row r="110" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="13"/>
@@ -3575,7 +3620,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
     </row>
-    <row r="111" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="13"/>
@@ -3583,7 +3628,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
     </row>
-    <row r="112" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="13"/>
@@ -3591,7 +3636,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
     </row>
-    <row r="113" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="13"/>
@@ -3599,7 +3644,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
     </row>
-    <row r="114" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="13"/>
@@ -3607,13 +3652,21 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
     </row>
-    <row r="115" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="13"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="13"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
